--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel\Documents\GitHub\wcde-shiny\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Documents\GitHub\wcde-shiny-2023\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDAEBF7-6286-4324-96E4-6459B79F2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faq" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>category</t>
   </si>
@@ -75,9 +76,6 @@
     <t>What software do I need to &lt;strong&gt;display a CSV&lt;/strong&gt; file?</t>
   </si>
   <si>
-    <t>What software do I need to &lt;strong&gt;display a PDF&lt;/strong&gt; file?</t>
-  </si>
-  <si>
     <t>No registration is required for accessing, selecting, and downloading data.</t>
   </si>
   <si>
@@ -105,9 +103,6 @@
     <t>Which and how many &lt;strong&gt;scenarios&lt;/strong&gt; are included in the WIC Data Explorer?</t>
   </si>
   <si>
-    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://wu.ac.at/'&gt;Vienna University of Economics and Business (WU)&lt;/a&gt;. Its aim is to be a world leader in the advancement of demographic methods and their application to the analysis of human capital and population dynamics by combining the three partner organizations' strengths in the fields of demography, human capital formation, and analysis of the returns to education.</t>
-  </si>
-  <si>
     <t>Yes, webmasters can place links to the WIC Data Explorer without  special permission. Nevertheless, we would appreciate &lt;a href='mailto:data@wittgensteincentre.org'&gt;notification&lt;/a&gt; if you do so.</t>
   </si>
   <si>
@@ -117,9 +112,6 @@
     <t>No, currently there is no function to download entire datasets or the entire database at once. You must make a selection first to get a download option. Nevertheless, if you require a large number of indicators and countries you can send us a &lt;a href='mailto:data@wittgensteincentre.org'&gt;message&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>To view a PDF file you will need a PDF viewer like Adobe Reader. To download Adobe Reader for free, click &lt;a href='http://get.adobe.com/de/reader/'&gt;here&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>If you have further questions or if you want to report a bug or request a feature, please send a message to &lt;a href='mailto:data@wittgensteincentre.org'&gt;data@wittgensteincentre.org&lt;/a&gt;.</t>
   </si>
   <si>
@@ -153,47 +145,82 @@
     <t>It is possible to select the total population or five year age groups from 0 to 4 until 95 to 99 as well as the age group 100+ (the maximum age group considered).</t>
   </si>
   <si>
-    <t>For 16 countries it was not possible to obtain data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDF reports are available for all 201 countries, with tables of detailed results of projections for each of the EU-28 countries, and tables with chosen results of projections for all of the other countries in the world. </t>
-  </si>
-  <si>
-    <t>For which countries are &lt;strong&gt;PDFs with additional information&lt;/strong&gt; available?</t>
-  </si>
-  <si>
-    <t>Five different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of countries with data on educational attainement has been increased to 185 (from 171 in Version 1.2). We have updated the education data with the most recent valid datasets. Whenever possible, we have also disaggregated the post-secondary education category in more categories following ISCED 11. Furthermore, the reconstruction goes back to 1950 (instead of 1970 in Version 1.2). </t>
-  </si>
-  <si>
-    <t>Due to methodological constraints, only countries with a population of more than 100,000 people in 2015 are currently considered in the database (the Seychelles is the only exception).</t>
-  </si>
-  <si>
-    <t>The WIC Data Explorer currently includes data on the following topics for 201 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
-  </si>
-  <si>
-    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2015). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
-  </si>
-  <si>
-    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 2.0 2018'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data selection in WIC Data Explorer is done in four steps: (1) Select your indicator; (2) Select the geography by choosing countries and/or regions; (3) Choose the preferred sex and age categories; (4) Choose the  scenarios and years. Then click the 'View Data' button to view your selection. Furthermore, in all fields of the WIC Data Explorer you can type or click to make your selection and to get suggestions. You can also use the backspace command to remove entries from your selection. </t>
   </si>
   <si>
-    <t>201 countries are included in the WIC Data Explorer. However, for 16 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Channel Islands, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. For those countries, we do not reconstruct back to 1950. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
+  </si>
+  <si>
+    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
+  </si>
+  <si>
+    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
+  </si>
+  <si>
+    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
+  </si>
+  <si>
+    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
+  </si>
+  <si>
+    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
+  </si>
+  <si>
+    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
+  </si>
+  <si>
+    <t>The &lt;a href='http://www.wittgensteincentre.org/'&gt;Wittgenstein Centre for Demography and Global Human Capital (WIC)&lt;/a&gt; is based in Vienna and Laxenburg, Austria. It is a collaboration between the &lt;a href='http://www.iiasa.ac.at/'&gt;International Institute for Applied Systems Analysis (IIASA&lt;/a&gt;), the &lt;a href='http://www.oeaw.ac.at/vid/'&gt;Vienna Institute of Demography of the Austrian Academy of Sciences (VID/OEAW)&lt;/a&gt;, and the &lt;a href='http://univie.ac.at/'&gt;University of Vienna&lt;/a&gt;. The aim of the Wittgenstein Centre is to advance demographic methods and their application in analyzing human capital and population dynamics by leveraging the strengths of the three partner organizations in the fields of demography, human capital formation, and the analysis of returns to education.</t>
+  </si>
+  <si>
+    <t>The WIC Data Explorer currently includes data on the following topics for 200 countries of the world: total population and population growth, population ageing, education, fertility, mortality, and migration. Not all indicators are available in every scenario, by education, and/or at all geographical scales.</t>
+  </si>
+  <si>
+    <t>The projections by education until 2100 are based on collected census and survey data for the base year (around 2020). They follow different what-if scenarios to show the development over time if certain criteria are met. For more information see the Scenario Definitions tab.</t>
+  </si>
+  <si>
+    <t>The copyright of all data provided in the WIC Data Explorer belongs to the Wittgenstein Centre for Demography and Global Human Capital and its researchers. Data can be used for personal calculations and publications and should be  referenced as follows: 'Source: Wittgenstein Centre for Demography and Global Human Capital (WIC) Wittgenstein Centre Data Explorer. Version 3.0 2023'</t>
+  </si>
+  <si>
+    <t>What is the &lt;strong&gt;reference time&lt;/strong&gt; for the WIC data?</t>
+  </si>
+  <si>
+    <t>The reference time for WIC data is 1st of January of the year in question.</t>
+  </si>
+  <si>
+    <t>Why is there no data for the period &lt;strong&gt;before 2020&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>200 countries are included in the WIC Data Explorer. However, for 15 countries (Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara), we did not find (good quality) education data. Hence, regional averages or similar countries were used instead and we recommend careful use of their data. World regions and sub regions are adopted from the United Nations (UN). For more information on the UN definitions click &lt;a href='https://unstats.un.org/unsd/methodology/m49/'&gt;here&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>For 15 countries it was not possible to obtain (good quality) data on educational attainment for the base year. Hence, approximations based on regional averages were computed instead. Data for these countries should be used with utmost care. The countries in question are the following: Antigua and Barbuda, Barbados, Brunei Darussalem, Djibouti, Eritrea, Grenada, Guam, Libya, Mauritania, Mayotte, Papua New Guinea, Seychelles, United States Virgin Islands, Uzbekistan, and Western Sahara.</t>
+  </si>
+  <si>
+    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see KC et al. (2024),  &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
+  </si>
+  <si>
+    <t>Due to methodological constraints, only countries with a population of more than 80,000 people in 2020 are currently considered in the database.</t>
+  </si>
+  <si>
+    <t>Seven different scenarios from the Wittgenstein Global Human Capital projections are included in the WIC Data Explorer, following the Shared Socioeconomic Pathways (SSPs). For the detailed assumptions for every scenario see the Scenario Definitions tab and KC et al. (2024).</t>
+  </si>
+  <si>
+    <t>What is &lt;strong&gt;new compared to Version 2&lt;/strong&gt;?</t>
+  </si>
+  <si>
+    <t>The Version 3 update is the most comprehensive since 2013, extending beyond updating the base year to 2020. Short-term assumptions (up to 2030) have been occasionally updated, while assumptions for 2050 and 2100 remain largely unchanged since they were based on comprehensive analyses and expert input. However, the trend component of the assumptions has been modified based on recent observations. Modeling methodology, fertility, migration, and education have also been modified. Education-specific fertility levels have been updated with new estimates, and education differentials in mortality are now country- and region-specific rather than being normalized to a single level by gender. Also, education-specific migration rates are implemented in the projection model for the first time.</t>
+  </si>
+  <si>
+    <t>The reconstruction of population by levels of educational attainment from 1950 to 2020 will be made available in 2024.</t>
   </si>
   <si>
     <r>
-      <t>Currently data are included from 1950 until 2100. The base year for the projections is 2015. Stock estimates (e.g. population size) refer to 1</t>
+      <t>Currently data are included from 2020 until 2100. The base year for the projections is 2020. Stock estimates (e.g. population size) refer to 1</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -203,18 +230,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of July of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
+      <t xml:space="preserve"> of January of the year in question. Period estimates (e.g. total fertility rates) refer to the period between the 1</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -224,18 +249,16 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of July of the starting year and 30</t>
+      <t xml:space="preserve"> of January of the starting year and 31</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -245,97 +268,21 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> of June of the ending year of the period in question.</t>
+      <t xml:space="preserve"> of December of the ending year of the period in question.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Yes, data on immigration on emigration is available upon request. The assumptions used are based on &lt;a href='https://guyabel.com/publication/global-migration-estimates-by-gender/'&gt;Abel, 2017&lt;/a&gt;, from where you can obtain in- and outflow data from 1960 to 2015. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is due to later data adjustments in the course of validating the Data Explorer 2.0, resulting in minor changes to the projection results. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why are &lt;strong&gt;Age-specific Fertility Rates by Education&lt;/strong&gt; and &lt;strong&gt;Total Fertility Rates by Education&lt;/strong&gt; in many cases equal for different education categories? </t>
-  </si>
-  <si>
-    <t>Due to methodological reasons, education categories are aggregated whenever their share in total population is below a certain threshold.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While the reconstruction of population by levels of educational attainment from 1950 to 2015 covers 185 countries, population projections include 201 countries. Hence, proxy data for the missing countries have to be used to calculate regional aggregates, resulting in minor breaks in time series. </t>
-  </si>
-  <si>
-    <t>This is due to methodological constraints. As a result of different weights for different countries, regional aggregates of education-specific total fertility rates tend to show unsteady results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to methodological reasons slightly different calculations are used for the historical reconstruction (based on 6 education categories) and the projections (based on 8 education categories) of this indicator. </t>
-  </si>
-  <si>
-    <t>In the bottom right of the WIC Data Explorer you will find the download button for your current data selection. Choose the WIC Graphic Explorer, if you want to download PDFs or PNGs of maps, pyramids, and education stack charts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why is there a break in time series between 2010 and 2015 for &lt;strong&gt;Mean Years of Schooling&lt;/strong&gt; for some countries? </t>
-  </si>
-  <si>
-    <t>Why is there a &lt;strong&gt;break in time series&lt;/strong&gt; between 2010 and 2015 for many &lt;strong&gt;regions&lt;/strong&gt; and indicators?</t>
-  </si>
-  <si>
-    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2017 revision&lt;/a&gt; by the United Nations Population Division (2015 base-year population by age and sex and estimates for 1950-2010, and information about fertility, mortality and migration and related indicators for 1950-2015). The data are explained in two publications: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>Why are &lt;strong&gt;regional aggregates&lt;/strong&gt; for the indicator &lt;strong&gt;Total Fertility Rate by Education&lt;/strong&gt; very volatile, while country results look smooth?</t>
-  </si>
-  <si>
-    <t>Why do I get the following message in the table when I submit my selection: '&lt;strong&gt;No data available&lt;/strong&gt; in table'?</t>
-  </si>
-  <si>
-    <t>Why is the &lt;strong&gt;8 education categories&lt;/strong&gt; choice not available for all countries and all years?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Population Division, World Population Prospects 2017 data was obtained through the R package 'wpp2017' which displays slightly different values than the download files. </t>
-  </si>
-  <si>
-    <t>Why are &lt;strong&gt;SSP4 and 5 not available&lt;/strong&gt; anymore in Version 2.0?</t>
-  </si>
-  <si>
-    <t>Why is the &lt;strong&gt;reconstructed data&lt;/strong&gt; from 1970 to 2010 different from Version 1.2?</t>
-  </si>
-  <si>
-    <t>What is &lt;strong&gt;new compared to Version 1.2&lt;/strong&gt;?</t>
-  </si>
-  <si>
-    <t>Why is data referenced to &lt;a href="http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm"&gt;&lt;strong&gt;UN Population Division, World Population Prospects 2017&lt;/strong&gt;&lt;/a&gt; slightly different from what I find in UN World Population Prospects 2017 &lt;a href="https://population.un.org/wpp/Download/Standard/Population/"&gt;download files&lt;/a&gt;?</t>
-  </si>
-  <si>
-    <t>Why is the data in the Data Explorer slightly &lt;strong&gt;different from the data published&lt;/strong&gt; in &lt;a href="https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries"&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt;?</t>
-  </si>
-  <si>
-    <t>Is there also information on &lt;strong&gt;immigration and emigration&lt;/strong&gt; available?</t>
-  </si>
-  <si>
-    <t>Why do I get the following warning when I submit my selection: 'Your selection includes at least &lt;strong&gt;one country with limited base year data&lt;/strong&gt; on educational attainment. Please consult the FAQ for more information.'?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to insufficient data on sub-categories for post-secondary education, the categories 'Short Post-Secondary', 'Bachelor' and 'Master and higher' are only available for 59 countries from 2015 onwards. </t>
-  </si>
-  <si>
-    <t>Education categories used in the projections are in line with selected UNESCO's &lt;a href='http://www.uis.unesco.org/Education/Pages/international-standard-classification-of-education.aspx'&gt;International Standard Classification of Education (ISCED 2011) categories&lt;/a&gt;. For details on WIC categories, see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al., 2019, VID WP 02/2019&lt;/a&gt; or the Education Definitions tab.</t>
-  </si>
-  <si>
-    <t>The main reason is that the reconstruction uses a different base-year dataset. Furthermore, the methodology was slightly modified, making usage of validated historical datasets. For more information see &lt;a href='https://www.oeaw.ac.at/fileadmin/subsites/Institute/VID/IMG/Publications/Working_Papers/WP2019_02.pdf'&gt;Speringer et al. 2019&lt;/a&gt;.</t>
-  </si>
-  <si>
-    <t>SSP4 and SSP5 were finalized in 2020 (&lt;a href = 'http://pure.iiasa.ac.at/id/eprint/16710/1/WP-20-016.pdf'&gt;link&lt;/a&gt;), the results for population and mean years of schooling can be downloaded directly &lt;a href = 'http://pure.iiasa.ac.at/id/eprint/17550/1/Global population and human capital projections.zip'&gt;here&lt;/a&gt;.</t>
+    <t>The projection data come from population projections carried out by researchers at WIC. They are based on several data collection excercises for the base-year data and historical reconstruction to 1950. The research also uses largely the data produced by &lt;a href='http://esa.un.org/wpp/documentation/WPP%202010%20publications.htm'&gt;World Population Prospects: The 2022 revision&lt;/a&gt; by the United Nations Population Division (2020 base-year population by age and sex and estimates for 1950-2015, and information about fertility, mortality and migration and related indicators for 1950-2020). The data are explained in several publications: KC et al. (2024), Yildiz and Abel (2024), Moradhvah and KC (2024 forthcoming) and  Adhikari et al. (2024 forthcoming). The methodology and the rationale behind the assumptions underlying the scenarios are detailed in: &lt;a href='https://ec.europa.eu/jrc/en/publication/demographic-and-human-capital-scenarios-21st-century-2018-assessment-201-countries'&gt;Lutz, Goujon, KC, Stonawski, and Stilianakis (Eds.) (2018)&lt;/a&gt; and &lt;a href='https://global.oup.com/academic/product/world-population-and-human-capital-in-the-twenty-first-century-9780198703167?cc=at&amp;lang=en'&gt;Lutz, Butz, and K.C. (Eds.) (2014)&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,16 +420,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -829,15 +774,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,9 +845,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -937,9 +885,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -974,7 +922,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1009,7 +957,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1182,25 +1130,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="163.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.26953125" customWidth="1"/>
+    <col min="3" max="3" width="255.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1210,429 +1159,335 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/meta/faq.xlsx
+++ b/meta/faq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yildiz\Documents\GitHub\wcde-shiny-2023\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDAEBF7-6286-4324-96E4-6459B79F2073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BAEF08A-DEA4-4C89-B3AC-74B4281070B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2205" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,14 +776,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
